--- a/platform_scrapper/data/first_data/first_data_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/first_data/first_data_cannabis_used_IDs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14362" uniqueCount="5449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14378" uniqueCount="5449">
   <si>
     <t>Dutchie</t>
   </si>
@@ -16878,10 +16878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2004"/>
+  <dimension ref="A1:N2006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1992" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2006" sqref="A2006:XFD2006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -72063,7 +72063,7 @@
       <c r="I2003" s="3">
         <v>12266479333</v>
       </c>
-      <c r="J2003" t="s">
+      <c r="J2003" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -72094,6 +72094,66 @@
         <v>14165460810</v>
       </c>
       <c r="J2004" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:10" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2005" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B2005" s="3" t="s">
+        <v>4643</v>
+      </c>
+      <c r="C2005" s="3" t="s">
+        <v>5349</v>
+      </c>
+      <c r="D2005" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2005" s="3" t="s">
+        <v>5348</v>
+      </c>
+      <c r="F2005" s="25" t="s">
+        <v>5415</v>
+      </c>
+      <c r="G2005" s="20"/>
+      <c r="H2005" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2005" s="3">
+        <v>19058752837</v>
+      </c>
+      <c r="J2005" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:10" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2006" s="3" t="s">
+        <v>5352</v>
+      </c>
+      <c r="B2006" s="3" t="s">
+        <v>5351</v>
+      </c>
+      <c r="C2006" s="3" t="s">
+        <v>5350</v>
+      </c>
+      <c r="D2006" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2006" s="3" t="s">
+        <v>5348</v>
+      </c>
+      <c r="F2006" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2006" s="20"/>
+      <c r="H2006" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2006" s="3">
+        <v>19057220420</v>
+      </c>
+      <c r="J2006" s="3" t="s">
         <v>5</v>
       </c>
     </row>
